--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/AllergyCategoryVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/AllergyCategoryVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T15:35:14-05:00</t>
+    <t>2024-05-18T11:51:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -346,43 +349,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -404,44 +407,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-AllergyCategoryVS.xlsx
+++ b/docs/ValueSet-AllergyCategoryVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
